--- a/output/StructureDefinition-ch-etoc-document.xlsx
+++ b/output/StructureDefinition-ch-etoc-document.xlsx
@@ -521,7 +521,7 @@
 </t>
   </si>
   <si>
-    <t>When the bundle was assembled</t>
+    <t>Date, the document was created</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>
@@ -1000,7 +1000,7 @@
 referralreferral requesttransfer of care request</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest}
+    <t xml:space="preserve">ServiceRequest {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ch-etoc-document.xlsx
+++ b/output/StructureDefinition-ch-etoc-document.xlsx
@@ -425,7 +425,7 @@
     <t>Bundle.identifier.value</t>
   </si>
   <si>
-    <t>uuid as Document Identifier</t>
+    <t>UUID as Document Identifier</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1000,11 +1000,11 @@
 referralreferral requesttransfer of care request</t>
   </si>
   <si>
-    <t xml:space="preserve">ServiceRequest {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest}
 </t>
   </si>
   <si>
-    <t>A request for a service to be performed</t>
+    <t>CH ORF ServiceRequest</t>
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
@@ -1905,7 +1905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>77</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
@@ -2462,7 +2462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>121</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -2575,7 +2575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>131</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -2906,7 +2906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>154</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3017,7 +3017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>161</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3917,7 +3917,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -7425,7 +7425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>193</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -8089,7 +8089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>210</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -10955,7 +10955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>193</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -11619,7 +11619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>210</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>49</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>40</v>
@@ -14483,7 +14483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>193</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>49</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>40</v>
@@ -15147,7 +15147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>210</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>49</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>40</v>
@@ -18013,7 +18013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>193</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>40</v>
@@ -18677,7 +18677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>210</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>49</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>40</v>
